--- a/res/thermodynamic_properties_h2.xlsx
+++ b/res/thermodynamic_properties_h2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>100.616</v>
       </c>
       <c r="F2" t="n">
-        <v>-2576993.6</v>
+        <v>-7062.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4391.27601</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>119.8235020168109</v>
       </c>
       <c r="F3" t="n">
-        <v>-5354788.710743491</v>
+        <v>-18201.80839302206</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2251.320227505058</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>130.7353331711554</v>
       </c>
       <c r="F4" t="n">
-        <v>-8052700.711758495</v>
+        <v>-30532.94961280646</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1551.542860381802</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>130.9051720249683</v>
       </c>
       <c r="F5" t="n">
-        <v>-8103787.866815644</v>
+        <v>-30774.96729228233</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1542.781569026557</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>138.8562117649686</v>
       </c>
       <c r="F6" t="n">
-        <v>-10884823.68658025</v>
+        <v>-44281.13550411318</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1190.844685387278</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>145.1184816945171</v>
       </c>
       <c r="F7" t="n">
-        <v>-13709047.61584102</v>
+        <v>-58490.68447226479</v>
+      </c>
+      <c r="G7" t="n">
+        <v>981.0892318317796</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>150.3183342671607</v>
       </c>
       <c r="F8" t="n">
-        <v>-16579388.83707973</v>
+        <v>-73269.73472377696</v>
+      </c>
+      <c r="G8" t="n">
+        <v>842.2013557632341</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>154.7861294283161</v>
       </c>
       <c r="F9" t="n">
-        <v>-19496452.01578463</v>
+        <v>-88530.12087463646</v>
+      </c>
+      <c r="G9" t="n">
+        <v>743.6832867213019</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>158.7178614662561</v>
       </c>
       <c r="F10" t="n">
-        <v>-22459984.06557422</v>
+        <v>-104209.2113966037</v>
+      </c>
+      <c r="G10" t="n">
+        <v>670.318057898534</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>162.2394881684219</v>
       </c>
       <c r="F11" t="n">
-        <v>-25469360.01492069</v>
+        <v>-120260.1268760106</v>
+      </c>
+      <c r="G11" t="n">
+        <v>613.6693016261501</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>165.4368111368933</v>
       </c>
       <c r="F12" t="n">
-        <v>-28523775.93054402</v>
+        <v>-136646.4040174861</v>
+      </c>
+      <c r="G12" t="n">
+        <v>568.6856136103667</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>168.370933826405</v>
       </c>
       <c r="F13" t="n">
-        <v>-31622335.87103968</v>
+        <v>-153338.8313652148</v>
+      </c>
+      <c r="G13" t="n">
+        <v>532.1590565176101</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>171.0869253071809</v>
       </c>
       <c r="F14" t="n">
-        <v>-34764094.9482604</v>
+        <v>-170313.4517307254</v>
+      </c>
+      <c r="G14" t="n">
+        <v>501.9553840600728</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>173.6189874318157</v>
       </c>
       <c r="F15" t="n">
-        <v>-37948082.26571658</v>
+        <v>-187550.2380793052</v>
+      </c>
+      <c r="G15" t="n">
+        <v>476.6000643336332</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>175.9936938663685</v>
       </c>
       <c r="F16" t="n">
-        <v>-41173313.87005445</v>
+        <v>-205032.1807142743</v>
+      </c>
+      <c r="G16" t="n">
+        <v>455.0420155168398</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>178.2321050873034</v>
       </c>
       <c r="F17" t="n">
-        <v>-44438800.41972441</v>
+        <v>-222744.6373688616</v>
+      </c>
+      <c r="G17" t="n">
+        <v>436.512022565733</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>180.3511973746179</v>
       </c>
       <c r="F18" t="n">
-        <v>-47743551.90869159</v>
+        <v>-240674.8578064965</v>
+      </c>
+      <c r="G18" t="n">
+        <v>420.4343567178148</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>182.3648567078754</v>
       </c>
       <c r="F19" t="n">
-        <v>-51086580.67473032</v>
+        <v>-258811.6279850614</v>
+      </c>
+      <c r="G19" t="n">
+        <v>406.3696584450841</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>184.2845875005708</v>
       </c>
       <c r="F20" t="n">
-        <v>-54466903.37050875</v>
+        <v>-277144.9983880197</v>
+      </c>
+      <c r="G20" t="n">
+        <v>393.976906182726</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>186.1200290732323</v>
       </c>
       <c r="F21" t="n">
-        <v>-57883542.28708738</v>
+        <v>-295666.0730072931</v>
+      </c>
+      <c r="G21" t="n">
+        <v>382.9874268552954</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>187.8793392589748</v>
       </c>
       <c r="F22" t="n">
-        <v>-61335526.26167139</v>
+        <v>-314366.8429347962</v>
+      </c>
+      <c r="G22" t="n">
+        <v>373.1867255496065</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>189.5694841687104</v>
       </c>
       <c r="F23" t="n">
-        <v>-64821891.31186523</v>
+        <v>-333240.0533591809</v>
+      </c>
+      <c r="G23" t="n">
+        <v>364.4015226170408</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>191.1964603884113</v>
       </c>
       <c r="F24" t="n">
-        <v>-68341681.08609369</v>
+        <v>-352279.0959812657</v>
+      </c>
+      <c r="G24" t="n">
+        <v>356.4903376656329</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>192.7654676791216</v>
       </c>
       <c r="F25" t="n">
-        <v>-71893947.18807644</v>
+        <v>-371477.9210495653</v>
+      </c>
+      <c r="G25" t="n">
+        <v>349.3365384325882</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>194.2810448508635</v>
       </c>
       <c r="F26" t="n">
-        <v>-75477749.41353306</v>
+        <v>-390830.9647361813</v>
+      </c>
+      <c r="G26" t="n">
+        <v>342.8431338305314</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>195.7471778509525</v>
       </c>
       <c r="F27" t="n">
-        <v>-79092155.92478383</v>
+        <v>-410333.0886472248</v>
+      </c>
+      <c r="G27" t="n">
+        <v>336.9288215164979</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>197.1673866190587</v>
       </c>
       <c r="F28" t="n">
-        <v>-82736243.38079938</v>
+        <v>-429979.5290339627</v>
+      </c>
+      <c r="G28" t="n">
+        <v>331.5249512914565</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>198.5447955263907</v>
       </c>
       <c r="F29" t="n">
-        <v>-86409097.03489451</v>
+        <v>-449765.8538342816</v>
+      </c>
+      <c r="G29" t="n">
+        <v>326.5731662000721</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>199.8821909874292</v>
       </c>
       <c r="F30" t="n">
-        <v>-90109810.80865875</v>
+        <v>-469687.9260909078</v>
+      </c>
+      <c r="G30" t="n">
+        <v>322.0235513865121</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>201.1820689494605</v>
       </c>
       <c r="F31" t="n">
-        <v>-93837487.34825814</v>
+        <v>-489741.8726051307</v>
+      </c>
+      <c r="G31" t="n">
+        <v>317.8331677509594</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>202.4466743220182</v>
       </c>
       <c r="F32" t="n">
-        <v>-97591238.06753802</v>
+        <v>-509924.0569214826</v>
+      </c>
+      <c r="G32" t="n">
+        <v>313.9648803184793</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>203.6780339342317</v>
       </c>
       <c r="F33" t="n">
-        <v>-101370183.1811625</v>
+        <v>-530231.0559201518</v>
+      </c>
+      <c r="G33" t="n">
+        <v>310.3864145389922</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>204.8779842546086</v>
       </c>
       <c r="F34" t="n">
-        <v>-105173451.7301762</v>
+        <v>-550659.6394341862</v>
+      </c>
+      <c r="G34" t="n">
+        <v>307.0695904762517</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>206.0481948414713</v>
       </c>
       <c r="F35" t="n">
-        <v>-109000181.6017635</v>
+        <v>-571206.7524180685</v>
+      </c>
+      <c r="G35" t="n">
+        <v>303.9896970083363</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>207.1901882896557</v>
       </c>
       <c r="F36" t="n">
-        <v>-112849519.5445386</v>
+        <v>-591869.4992804757</v>
+      </c>
+      <c r="G36" t="n">
+        <v>301.1249770998739</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>208.3053572835348</v>
       </c>
       <c r="F37" t="n">
-        <v>-116720621.1803742</v>
+        <v>-612645.13006249</v>
+      </c>
+      <c r="G37" t="n">
+        <v>298.4562018405886</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>209.3949792459739</v>
       </c>
       <c r="F38" t="n">
-        <v>-120612651.013536</v>
+        <v>-633531.0281972556</v>
+      </c>
+      <c r="G38" t="n">
+        <v>295.9663159167131</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>210.4602289788205</v>
       </c>
       <c r="F39" t="n">
-        <v>-124524782.437713</v>
+        <v>-654524.6996311446</v>
+      </c>
+      <c r="G39" t="n">
+        <v>293.6401409415011</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>211.5021896165977</v>
       </c>
       <c r="F40" t="n">
-        <v>-128456197.7413975</v>
+        <v>-675623.7631222169</v>
+      </c>
+      <c r="G40" t="n">
+        <v>291.4641259381042</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>212.5218621565228</v>
       </c>
       <c r="F41" t="n">
-        <v>-132406088.1119664</v>
+        <v>-696825.9415608827</v>
+      </c>
+      <c r="G41" t="n">
+        <v>289.4261364718034</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>213.5201737812966</v>
       </c>
       <c r="F42" t="n">
-        <v>-136373653.6387398</v>
+        <v>-718129.0541815717</v>
+      </c>
+      <c r="G42" t="n">
+        <v>287.515275635157</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>214.4979851536618</v>
       </c>
       <c r="F43" t="n">
-        <v>-140358103.3152319</v>
+        <v>-739531.0095539116</v>
+      </c>
+      <c r="G43" t="n">
+        <v>285.7217314205697</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>215.4560968315075</v>
       </c>
       <c r="F44" t="n">
-        <v>-144358655.0407631</v>
+        <v>-761029.7992582608</v>
+      </c>
+      <c r="G44" t="n">
+        <v>284.0366460597206</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>216.3952549277732</v>
       </c>
       <c r="F45" t="n">
-        <v>-148374535.6215678</v>
+        <v>-782623.492164046</v>
+      </c>
+      <c r="G45" t="n">
+        <v>282.4520037348885</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>217.3161561193921</v>
       </c>
       <c r="F46" t="n">
-        <v>-152404980.7715034</v>
+        <v>-804310.2292407472</v>
+      </c>
+      <c r="G46" t="n">
+        <v>280.9605337234233</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>218.2194520931048</v>
       </c>
       <c r="F47" t="n">
-        <v>-156449235.1124447</v>
+        <v>-826088.2188409461</v>
+      </c>
+      <c r="G47" t="n">
+        <v>279.5556265611929</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>219.10575350245</v>
       </c>
       <c r="F48" t="n">
-        <v>-160506552.1744319</v>
+        <v>-847955.7324029494</v>
+      </c>
+      <c r="G48" t="n">
+        <v>278.2312612324437</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>219.975633499046</v>
       </c>
       <c r="F49" t="n">
-        <v>-164576194.3956239</v>
+        <v>-869911.1005273379</v>
+      </c>
+      <c r="G49" t="n">
+        <v>276.9819417341319</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>220.8296308919705</v>
       </c>
       <c r="F50" t="n">
-        <v>-168657433.1221027</v>
+        <v>-891952.709387637</v>
+      </c>
+      <c r="G50" t="n">
+        <v>275.8026416393215</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>221.6682529812707</v>
       </c>
       <c r="F51" t="n">
-        <v>-172749548.6075597</v>
+        <v>-914078.997440275</v>
+      </c>
+      <c r="G51" t="n">
+        <v>274.6887555098178</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>222.4919781051283</v>
       </c>
       <c r="F52" t="n">
-        <v>-176851830.0128952</v>
+        <v>-936288.4524032718</v>
+      </c>
+      <c r="G52" t="n">
+        <v>273.6360561930299</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>223.3012579347152</v>
       </c>
       <c r="F53" t="n">
-        <v>-180963575.4057504</v>
+        <v>-958579.6084767641</v>
+      </c>
+      <c r="G53" t="n">
+        <v>272.6406571901517</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>224.096519546153</v>
       </c>
       <c r="F54" t="n">
-        <v>-185084091.7599909</v>
+        <v>-980951.0437816449</v>
+      </c>
+      <c r="G54" t="n">
+        <v>271.6989794084205</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>224.8781672950608</v>
       </c>
       <c r="F55" t="n">
-        <v>-189212694.9551566</v>
+        <v>-1003401.37799533</v>
+      </c>
+      <c r="G55" t="n">
+        <v>270.8077217144644</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>225.6465845158415</v>
       </c>
       <c r="F56" t="n">
-        <v>-193348709.7758875</v>
+        <v>-1025929.270166042</v>
+      </c>
+      <c r="G56" t="n">
+        <v>269.9638347925598</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>226.4021350650112</v>
       </c>
       <c r="F57" t="n">
-        <v>-197491469.9113362</v>
+        <v>-1048533.416689083</v>
+      </c>
+      <c r="G57" t="n">
+        <v>269.1644978841663</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>227.145164725438</v>
       </c>
       <c r="F58" t="n">
-        <v>-201640317.9545743</v>
+        <v>-1071212.549430341</v>
+      </c>
+      <c r="G58" t="n">
+        <v>268.407098045948</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>227.8760024862677</v>
       </c>
       <c r="F59" t="n">
-        <v>-205794605.4019964</v>
+        <v>-1093965.433983901</v>
+      </c>
+      <c r="G59" t="n">
+        <v>267.6892116146865</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>228.5949617115139</v>
       </c>
       <c r="F60" t="n">
-        <v>-209953692.6527295</v>
+        <v>-1116790.868051978</v>
+      </c>
+      <c r="G60" t="n">
+        <v>267.0085876107075</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>229.3023412087347</v>
       </c>
       <c r="F61" t="n">
-        <v>-214116949.0080482</v>
+        <v>-1139687.679936618</v>
+      </c>
+      <c r="G61" t="n">
+        <v>266.3631328480378</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>229.9984262078762</v>
       </c>
       <c r="F62" t="n">
-        <v>-218283752.6708006</v>
+        <v>-1162654.727133703</v>
+      </c>
+      <c r="G62" t="n">
+        <v>265.7508985505983</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>231.3577910581568</v>
       </c>
       <c r="F63" t="n">
-        <v>-226625559.2345053</v>
+        <v>-1208795.095630627</v>
+      </c>
+      <c r="G63" t="n">
+        <v>264.6189471647899</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>232.6750989004717</v>
       </c>
       <c r="F64" t="n">
-        <v>-234974315.9770722</v>
+        <v>-1255203.369618909</v>
+      </c>
+      <c r="G64" t="n">
+        <v>263.5996019305571</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>233.9522255900658</v>
       </c>
       <c r="F65" t="n">
-        <v>-243325368.9224013</v>
+        <v>-1301871.336660928</v>
+      </c>
+      <c r="G65" t="n">
+        <v>262.6813823194991</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>235.190900123859</v>
       </c>
       <c r="F66" t="n">
-        <v>-251674206.4692319</v>
+        <v>-1348791.144493852</v>
+      </c>
+      <c r="G66" t="n">
+        <v>261.8542113996328</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>236.392721675679</v>
       </c>
       <c r="F67" t="n">
-        <v>-260016459.3763422</v>
+        <v>-1395955.27340514</v>
+      </c>
+      <c r="G67" t="n">
+        <v>261.1092113752594</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>237.5591742308385</v>
       </c>
       <c r="F68" t="n">
-        <v>-268347900.7487728</v>
+        <v>-1443356.511767726</v>
+      </c>
+      <c r="G68" t="n">
+        <v>260.4385336423655</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>238.6916392149289</v>
       </c>
       <c r="F69" t="n">
-        <v>-276664446.0250369</v>
+        <v>-1490987.934295627</v>
+      </c>
+      <c r="G69" t="n">
+        <v>259.8352167702341</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>239.7914064379428</v>
       </c>
       <c r="F70" t="n">
-        <v>-284962152.9652684</v>
+        <v>-1538842.882652025</v>
+      </c>
+      <c r="G70" t="n">
+        <v>259.2930672165459</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>240.8596836164175</v>
       </c>
       <c r="F71" t="n">
-        <v>-293237221.6402534</v>
+        <v>-1586914.948100011</v>
+      </c>
+      <c r="G71" t="n">
+        <v>258.806558655885</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>241.8976046897099</v>
       </c>
       <c r="F72" t="n">
-        <v>-301485994.4212856</v>
+        <v>-1635197.955933911</v>
+      </c>
+      <c r="G72" t="n">
+        <v>258.3707466315409</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>242.9062371091381</v>
       </c>
       <c r="F73" t="n">
-        <v>-309704955.9707844</v>
+        <v>-1683685.951468443</v>
+      </c>
+      <c r="G73" t="n">
+        <v>257.9811958872704</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>243.8865882485624</v>
       </c>
       <c r="F74" t="n">
-        <v>-317890733.2336205</v>
+        <v>-1732373.187395592</v>
+      </c>
+      <c r="G74" t="n">
+        <v>257.6339182430594</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>244.8396110604923</v>
       </c>
       <c r="F75" t="n">
-        <v>-326040095.4290923</v>
+        <v>-1781254.112346262</v>
+      </c>
+      <c r="G75" t="n">
+        <v>257.3253192794754</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>245.7662090818308</v>
       </c>
       <c r="F76" t="n">
-        <v>-334149954.0435009</v>
+        <v>-1830323.36051653</v>
+      </c>
+      <c r="G76" t="n">
+        <v>257.0521524133099</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>246.6672408769804</v>
       </c>
       <c r="F77" t="n">
-        <v>-342217362.8232759</v>
+        <v>-1879575.742237441</v>
+      </c>
+      <c r="G77" t="n">
+        <v>256.8114792013095</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>247.5435239925342</v>
       </c>
       <c r="F78" t="n">
-        <v>-350239517.7686067</v>
+        <v>-1929006.23538344</v>
+      </c>
+      <c r="G78" t="n">
+        <v>256.6006349128361</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>248.3958384865972</v>
       </c>
       <c r="F79" t="n">
-        <v>-358213757.1275362</v>
+        <v>-1978609.977528252</v>
+      </c>
+      <c r="G79" t="n">
+        <v>256.4171985770219</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>249.2249300864869</v>
       </c>
       <c r="F80" t="n">
-        <v>-366137561.3904817</v>
+        <v>-2028382.258768623</v>
+      </c>
+      <c r="G80" t="n">
+        <v>256.2589668436001</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>250.0315130208042</v>
       </c>
       <c r="F81" t="n">
-        <v>-374008553.2851451</v>
+        <v>-2078318.51514634</v>
+      </c>
+      <c r="G81" t="n">
+        <v>256.1239311054982</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>250.8162725653567</v>
       </c>
       <c r="F82" t="n">
-        <v>-381824497.7717828</v>
+        <v>-2128414.322607437</v>
+      </c>
+      <c r="G82" t="n">
+        <v>256.0102574204391</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>252.6869562245719</v>
       </c>
       <c r="F83" t="n">
-        <v>-401110142.5057586</v>
+        <v>-2254324.042892604</v>
+      </c>
+      <c r="G83" t="n">
+        <v>255.808871799537</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>254.4349485920494</v>
       </c>
       <c r="F84" t="n">
-        <v>-420010238.4423207</v>
+        <v>-2381140.912504735</v>
+      </c>
+      <c r="G84" t="n">
+        <v>255.7082971802479</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>256.0691103526447</v>
       </c>
       <c r="F85" t="n">
-        <v>-438501529.5429877</v>
+        <v>-2508805.966281481</v>
+      </c>
+      <c r="G85" t="n">
+        <v>255.6902589111919</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>257.5976425209731</v>
       </c>
       <c r="F86" t="n">
-        <v>-456566314.749035</v>
+        <v>-2637264.499212894</v>
+      </c>
+      <c r="G86" t="n">
+        <v>255.7398826668212</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>259.0281942274292</v>
       </c>
       <c r="F87" t="n">
-        <v>-474192447.7266153</v>
+        <v>-2766465.764544092</v>
+      </c>
+      <c r="G87" t="n">
+        <v>255.8449902304635</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>260.3679493507352</v>
       </c>
       <c r="F88" t="n">
-        <v>-491373336.6494055</v>
+        <v>-2896362.720251712</v>
+      </c>
+      <c r="G88" t="n">
+        <v>255.9955615100311</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>261.623696791214</v>
       </c>
       <c r="F89" t="n">
-        <v>-508107944.0122693</v>
+        <v>-3026911.814575801</v>
+      </c>
+      <c r="G89" t="n">
+        <v>256.1833189987923</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>262.8018879573416</v>
       </c>
       <c r="F90" t="n">
-        <v>-524400786.4707052</v>
+        <v>-3158072.80336348</v>
+      </c>
+      <c r="G90" t="n">
+        <v>256.4014035525315</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>263.9086841597971</v>
       </c>
       <c r="F91" t="n">
-        <v>-540261934.7018439</v>
+        <v>-3289808.593535531</v>
+      </c>
+      <c r="G91" t="n">
+        <v>256.6441190488792</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>264.9499959673344</v>
       </c>
       <c r="F92" t="n">
-        <v>-555707013.2835536</v>
+        <v>-3422085.108165973</v>
+      </c>
+      <c r="G92" t="n">
+        <v>256.9067295556419</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>265.931516106916</v>
       </c>
       <c r="F93" t="n">
-        <v>-570757200.5888358</v>
+        <v>-3554871.16956802</v>
+      </c>
+      <c r="G93" t="n">
+        <v>257.1852969185762</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>266.8587471386126</v>
       </c>
       <c r="F94" t="n">
-        <v>-585439228.6932017</v>
+        <v>-3688138.397478818</v>
+      </c>
+      <c r="G94" t="n">
+        <v>257.4765497451299</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>267.7370248705454</v>
       </c>
       <c r="F95" t="n">
-        <v>-599785383.2931125</v>
+        <v>-3821861.119981252</v>
+      </c>
+      <c r="G95" t="n">
+        <v>257.7777769812648</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>268.5715382773066</v>
       </c>
       <c r="F96" t="n">
-        <v>-613833503.6339</v>
+        <v>-3956016.295231025</v>
+      </c>
+      <c r="G96" t="n">
+        <v>258.0867409044436</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>269.3673465302916</v>
       </c>
       <c r="F97" t="n">
-        <v>-627626982.4458408</v>
+        <v>-4090583.442398543</v>
+      </c>
+      <c r="G97" t="n">
+        <v>258.4016055586663</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>270.1293936283312</v>
       </c>
       <c r="F98" t="n">
-        <v>-641214765.8872707</v>
+        <v>-4225544.580508001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>258.7208775557333</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>270.8625210232902</v>
       </c>
       <c r="F99" t="n">
-        <v>-654651353.4938078</v>
+        <v>-4360884.174075993</v>
+      </c>
+      <c r="G99" t="n">
+        <v>259.0433568438453</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>271.5714785615932</v>
       </c>
       <c r="F100" t="n">
-        <v>-667996798.1328886</v>
+        <v>-4496589.084630053</v>
+      </c>
+      <c r="G100" t="n">
+        <v>259.3680955590532</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>272.2609340042449</v>
       </c>
       <c r="F101" t="n">
-        <v>-681316705.9629458</v>
+        <v>-4632648.527332912</v>
+      </c>
+      <c r="G101" t="n">
+        <v>259.6943634690853</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>272.9354813413641</v>
       </c>
       <c r="F102" t="n">
-        <v>-694682236.3966551</v>
+        <v>-4769054.032057454</v>
+      </c>
+      <c r="G102" t="n">
+        <v>260.0216188231342</v>
       </c>
     </row>
   </sheetData>

--- a/res/thermodynamic_properties_h2.xlsx
+++ b/res/thermodynamic_properties_h2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Heat Capacity (Cp)</t>
+          <t>Experimental Cp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,22 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fitted Enthalpy (H)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Enthalpy (H)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy (S)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential</t>
+          <t>Experimental Entropy (S)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phi (Ф)</t>
+          <t>Fitted Entropy (S)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Phi (Φ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fitted Phi (Φ)</t>
         </is>
       </c>
     </row>
@@ -478,19 +488,25 @@
         <v>28.155</v>
       </c>
       <c r="C2" t="n">
-        <v>28.61803070453243</v>
+        <v>28.24915109337245</v>
       </c>
       <c r="D2" t="n">
         <v>2.999</v>
       </c>
       <c r="E2" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="F2" t="n">
         <v>100.616</v>
       </c>
-      <c r="F2" t="n">
-        <v>-7062.6</v>
-      </c>
       <c r="G2" t="n">
-        <v>4391.27601</v>
+        <v>100.616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>70.624</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70.95065191</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +517,25 @@
         <v>27.447</v>
       </c>
       <c r="C3" t="n">
-        <v>27.28182548391758</v>
+        <v>27.8550427924028</v>
       </c>
       <c r="D3" t="n">
-        <v>5.762892010340128</v>
+        <v>5.790741303303287</v>
       </c>
       <c r="E3" t="n">
-        <v>119.8235020168109</v>
+        <v>5.693</v>
       </c>
       <c r="F3" t="n">
-        <v>-18201.80839302206</v>
+        <v>119.301</v>
       </c>
       <c r="G3" t="n">
-        <v>2251.320227505058</v>
+        <v>119.9810508689281</v>
+      </c>
+      <c r="H3" t="n">
+        <v>90.836</v>
+      </c>
+      <c r="I3" t="n">
+        <v>88.26002842075994</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +546,25 @@
         <v>28.836</v>
       </c>
       <c r="C4" t="n">
-        <v>27.45333212978658</v>
+        <v>28.11015676768692</v>
       </c>
       <c r="D4" t="n">
-        <v>8.445789972173516</v>
+        <v>8.535838317759451</v>
       </c>
       <c r="E4" t="n">
-        <v>130.7353331711554</v>
+        <v>8.468</v>
       </c>
       <c r="F4" t="n">
-        <v>-30532.94961280646</v>
+        <v>130.57</v>
       </c>
       <c r="G4" t="n">
-        <v>1551.542860381802</v>
+        <v>131.1448374240087</v>
+      </c>
+      <c r="H4" t="n">
+        <v>102.169</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98.74539896475258</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +575,25 @@
         <v>28.849</v>
       </c>
       <c r="C5" t="n">
-        <v>27.45947789577478</v>
+        <v>28.11622240371153</v>
       </c>
       <c r="D5" t="n">
-        <v>8.496584315208155</v>
+        <v>8.587847714498196</v>
       </c>
       <c r="E5" t="n">
-        <v>130.9051720249683</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-30774.96729228233</v>
+        <v>130.747</v>
       </c>
       <c r="G5" t="n">
-        <v>1542.781569026557</v>
+        <v>131.3187388092571</v>
+      </c>
+      <c r="H5" t="n">
+        <v>102.345</v>
+      </c>
+      <c r="I5" t="n">
+        <v>98.91068532204267</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +604,25 @@
         <v>29.181</v>
       </c>
       <c r="C6" t="n">
-        <v>27.85129913608055</v>
+        <v>28.46963284950475</v>
       </c>
       <c r="D6" t="n">
-        <v>11.26134920187427</v>
+        <v>11.4168099092956</v>
       </c>
       <c r="E6" t="n">
-        <v>138.8562117649686</v>
+        <v>11.426</v>
       </c>
       <c r="F6" t="n">
-        <v>-44281.13550411318</v>
+        <v>139.104</v>
       </c>
       <c r="G6" t="n">
-        <v>1190.844685387278</v>
+        <v>139.4547185252403</v>
+      </c>
+      <c r="H6" t="n">
+        <v>110.538</v>
+      </c>
+      <c r="I6" t="n">
+        <v>106.6951059331431</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +633,25 @@
         <v>29.26</v>
       </c>
       <c r="C7" t="n">
-        <v>28.29724533954055</v>
+        <v>28.84588243447803</v>
       </c>
       <c r="D7" t="n">
-        <v>14.06855637499376</v>
+        <v>14.28249555129457</v>
       </c>
       <c r="E7" t="n">
-        <v>145.1184816945171</v>
+        <v>14.349</v>
       </c>
       <c r="F7" t="n">
-        <v>-58490.68447226479</v>
+        <v>145.626</v>
       </c>
       <c r="G7" t="n">
-        <v>981.0892318317796</v>
+        <v>145.8477506449199</v>
+      </c>
+      <c r="H7" t="n">
+        <v>116.927</v>
+      </c>
+      <c r="I7" t="n">
+        <v>112.8697844535584</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +662,25 @@
         <v>29.327</v>
       </c>
       <c r="C8" t="n">
-        <v>28.75789199568948</v>
+        <v>29.22782871913783</v>
       </c>
       <c r="D8" t="n">
-        <v>16.92126583651943</v>
+        <v>17.18616627674477</v>
       </c>
       <c r="E8" t="n">
-        <v>150.3183342671607</v>
+        <v>17.278</v>
       </c>
       <c r="F8" t="n">
-        <v>-73269.73472377696</v>
+        <v>150.966</v>
       </c>
       <c r="G8" t="n">
-        <v>842.2013557632341</v>
+        <v>151.1407106599735</v>
+      </c>
+      <c r="H8" t="n">
+        <v>122.169</v>
+      </c>
+      <c r="I8" t="n">
+        <v>118.0107812467215</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +691,25 @@
         <v>29.44</v>
       </c>
       <c r="C9" t="n">
-        <v>29.21978892381405</v>
+        <v>29.60958068712799</v>
       </c>
       <c r="D9" t="n">
-        <v>19.82016972518481</v>
+        <v>20.12805154951256</v>
       </c>
       <c r="E9" t="n">
-        <v>154.7861294283161</v>
+        <v>20.216</v>
       </c>
       <c r="F9" t="n">
-        <v>-88530.12087463646</v>
+        <v>155.494</v>
       </c>
       <c r="G9" t="n">
-        <v>743.6832867213019</v>
+        <v>155.6748910669438</v>
+      </c>
+      <c r="H9" t="n">
+        <v>126.614</v>
+      </c>
+      <c r="I9" t="n">
+        <v>122.4309026819427</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +720,25 @@
         <v>29.623</v>
       </c>
       <c r="C10" t="n">
-        <v>29.67736949181447</v>
+        <v>29.9886622760919</v>
       </c>
       <c r="D10" t="n">
-        <v>22.76507777640121</v>
+        <v>23.1079921248224</v>
       </c>
       <c r="E10" t="n">
-        <v>158.7178614662561</v>
+        <v>23.169</v>
       </c>
       <c r="F10" t="n">
-        <v>-104209.2113966037</v>
+        <v>159.437</v>
       </c>
       <c r="G10" t="n">
-        <v>670.318057898534</v>
+        <v>159.6534840612688</v>
+      </c>
+      <c r="H10" t="n">
+        <v>130.476</v>
+      </c>
+      <c r="I10" t="n">
+        <v>126.31914696551</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +749,25 @@
         <v>29.88</v>
       </c>
       <c r="C11" t="n">
-        <v>30.12802069659144</v>
+        <v>30.3638768611019</v>
       </c>
       <c r="D11" t="n">
-        <v>25.75541247556911</v>
+        <v>26.1256545371708</v>
       </c>
       <c r="E11" t="n">
-        <v>162.2394881684219</v>
+        <v>26.143</v>
       </c>
       <c r="F11" t="n">
-        <v>-120260.1268760106</v>
+        <v>162.94</v>
       </c>
       <c r="G11" t="n">
-        <v>613.6693016261501</v>
+        <v>163.2073447510614</v>
+      </c>
+      <c r="H11" t="n">
+        <v>133.892</v>
+      </c>
+      <c r="I11" t="n">
+        <v>129.7985032074456</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +778,25 @@
         <v>30.204</v>
       </c>
       <c r="C12" t="n">
-        <v>30.57040828820792</v>
+        <v>30.73458174077919</v>
       </c>
       <c r="D12" t="n">
-        <v>28.79040711940712</v>
+        <v>29.1806168954918</v>
       </c>
       <c r="E12" t="n">
-        <v>165.4368111368933</v>
+        <v>29.147</v>
       </c>
       <c r="F12" t="n">
-        <v>-136646.4040174861</v>
+        <v>166.104</v>
       </c>
       <c r="G12" t="n">
-        <v>568.6856136103667</v>
+        <v>166.4257259594895</v>
+      </c>
+      <c r="H12" t="n">
+        <v>136.957</v>
+      </c>
+      <c r="I12" t="n">
+        <v>132.9535135630448</v>
       </c>
     </row>
     <row r="13">
@@ -731,19 +807,25 @@
         <v>30.58</v>
       </c>
       <c r="C13" t="n">
-        <v>31.00381367492366</v>
+        <v>31.10040090131486</v>
       </c>
       <c r="D13" t="n">
-        <v>31.86919584383063</v>
+        <v>32.27240788095949</v>
       </c>
       <c r="E13" t="n">
-        <v>168.370933826405</v>
+        <v>32.186</v>
       </c>
       <c r="F13" t="n">
-        <v>-153338.8313652148</v>
+        <v>169</v>
       </c>
       <c r="G13" t="n">
-        <v>532.1590565176101</v>
+        <v>169.3722406078157</v>
+      </c>
+      <c r="H13" t="n">
+        <v>139.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>135.8447977942003</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +836,25 @@
         <v>30.991</v>
       </c>
       <c r="C14" t="n">
-        <v>31.42783988732947</v>
+        <v>31.46109764756467</v>
       </c>
       <c r="D14" t="n">
-        <v>34.99085863789178</v>
+        <v>35.4005262458893</v>
       </c>
       <c r="E14" t="n">
-        <v>171.0869253071809</v>
+        <v>35.264</v>
       </c>
       <c r="F14" t="n">
-        <v>-170313.4517307254</v>
+        <v>171.678</v>
       </c>
       <c r="G14" t="n">
-        <v>501.9553840600728</v>
+        <v>172.0938319195631</v>
+      </c>
+      <c r="H14" t="n">
+        <v>142.292</v>
+      </c>
+      <c r="I14" t="n">
+        <v>138.5173062038675</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +865,25 @@
         <v>31.422</v>
       </c>
       <c r="C15" t="n">
-        <v>31.84226923262329</v>
+        <v>31.81651294247929</v>
       </c>
       <c r="D15" t="n">
-        <v>38.15444558205521</v>
+        <v>38.56445131314629</v>
       </c>
       <c r="E15" t="n">
-        <v>173.6189874318157</v>
+        <v>38.385</v>
       </c>
       <c r="F15" t="n">
-        <v>-187550.2380793052</v>
+        <v>174.176</v>
       </c>
       <c r="G15" t="n">
-        <v>476.6000643336332</v>
+        <v>174.6261334665479</v>
+      </c>
+      <c r="H15" t="n">
+        <v>144.649</v>
+      </c>
+      <c r="I15" t="n">
+        <v>141.005294159142</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +894,25 @@
         <v>31.86</v>
       </c>
       <c r="C16" t="n">
-        <v>32.24698937407676</v>
+        <v>32.16653338659761</v>
       </c>
       <c r="D16" t="n">
-        <v>41.35899069864153</v>
+        <v>41.76364897580719</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9936938663685</v>
+        <v>41.549</v>
       </c>
       <c r="F16" t="n">
-        <v>-205032.1807142743</v>
+        <v>176.52</v>
       </c>
       <c r="G16" t="n">
-        <v>455.0420155168398</v>
+        <v>176.9968337949591</v>
+      </c>
+      <c r="H16" t="n">
+        <v>146.843</v>
+      </c>
+      <c r="I16" t="n">
+        <v>143.335466743133</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +923,25 @@
         <v>32.296</v>
       </c>
       <c r="C17" t="n">
-        <v>32.64195267216669</v>
+        <v>32.51107360565258</v>
       </c>
       <c r="D17" t="n">
-        <v>44.60352026209346</v>
+        <v>44.99757529695746</v>
       </c>
       <c r="E17" t="n">
-        <v>178.2321050873034</v>
+        <v>44.757</v>
       </c>
       <c r="F17" t="n">
-        <v>-222744.6373688616</v>
+        <v>178.734</v>
       </c>
       <c r="G17" t="n">
-        <v>436.512022565733</v>
+        <v>179.2278757629717</v>
+      </c>
+      <c r="H17" t="n">
+        <v>148.896</v>
+      </c>
+      <c r="I17" t="n">
+        <v>145.5290462696433</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +952,25 @@
         <v>32.724</v>
       </c>
       <c r="C18" t="n">
-        <v>33.02715272050082</v>
+        <v>32.85006608652725</v>
       </c>
       <c r="D18" t="n">
-        <v>47.8870579928922</v>
+        <v>48.26567875956457</v>
       </c>
       <c r="E18" t="n">
-        <v>180.3511973746179</v>
+        <v>48.008</v>
       </c>
       <c r="F18" t="n">
-        <v>-240674.8578064965</v>
+        <v>180.832</v>
       </c>
       <c r="G18" t="n">
-        <v>420.4343567178148</v>
+        <v>181.3369437457921</v>
+      </c>
+      <c r="H18" t="n">
+        <v>150.827</v>
+      </c>
+      <c r="I18" t="n">
+        <v>147.6031771840946</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +981,25 @@
         <v>33.138</v>
       </c>
       <c r="C19" t="n">
-        <v>33.40261024150327</v>
+        <v>33.18345506762223</v>
       </c>
       <c r="D19" t="n">
-        <v>51.20862841832693</v>
+        <v>51.56740172227825</v>
       </c>
       <c r="E19" t="n">
-        <v>182.3648567078754</v>
+        <v>51.031</v>
       </c>
       <c r="F19" t="n">
-        <v>-258811.6279850614</v>
+        <v>182.828</v>
       </c>
       <c r="G19" t="n">
-        <v>406.3696584450841</v>
+        <v>183.3384986979379</v>
+      </c>
+      <c r="H19" t="n">
+        <v>152.651</v>
+      </c>
+      <c r="I19" t="n">
+        <v>149.571907917379</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +1010,25 @@
         <v>33.535</v>
       </c>
       <c r="C20" t="n">
-        <v>33.76836430590279</v>
+        <v>33.51119273535998</v>
       </c>
       <c r="D20" t="n">
-        <v>54.56725911300773</v>
+        <v>54.90218138996413</v>
       </c>
       <c r="E20" t="n">
-        <v>184.2845875005708</v>
+        <v>54.635</v>
       </c>
       <c r="F20" t="n">
-        <v>-277144.9983880197</v>
+        <v>184.733</v>
       </c>
       <c r="G20" t="n">
-        <v>393.976906182726</v>
+        <v>185.2445166338871</v>
+      </c>
+      <c r="H20" t="n">
+        <v>154.381</v>
+      </c>
+      <c r="I20" t="n">
+        <v>151.4468939214502</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +1039,25 @@
         <v>33.915</v>
       </c>
       <c r="C21" t="n">
-        <v>34.12446669739872</v>
+        <v>33.83323678310045</v>
       </c>
       <c r="D21" t="n">
-        <v>57.96198223184824</v>
+        <v>58.26945047775295</v>
       </c>
       <c r="E21" t="n">
-        <v>186.1200290732323</v>
+        <v>58.007</v>
       </c>
       <c r="F21" t="n">
-        <v>-295666.0730072931</v>
+        <v>186.557</v>
       </c>
       <c r="G21" t="n">
-        <v>382.9874268552954</v>
+        <v>187.0650270118471</v>
+      </c>
+      <c r="H21" t="n">
+        <v>156.027</v>
+      </c>
+      <c r="I21" t="n">
+        <v>153.2379118175034</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +1068,25 @@
         <v>34.277</v>
       </c>
       <c r="C22" t="n">
-        <v>34.47097819787438</v>
+        <v>34.14954880198946</v>
       </c>
       <c r="D22" t="n">
-        <v>61.39183558315344</v>
+        <v>61.66863767587506</v>
       </c>
       <c r="E22" t="n">
-        <v>187.8793392589748</v>
+        <v>61.417</v>
       </c>
       <c r="F22" t="n">
-        <v>-314366.8429347962</v>
+        <v>188.306</v>
       </c>
       <c r="G22" t="n">
-        <v>373.1867255496065</v>
+        <v>188.8085127574553</v>
+      </c>
+      <c r="H22" t="n">
+        <v>157.597</v>
+      </c>
+      <c r="I22" t="n">
+        <v>154.9532424648236</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +1097,25 @@
         <v>34.622</v>
       </c>
       <c r="C23" t="n">
-        <v>34.80796607997659</v>
+        <v>34.46009319480756</v>
       </c>
       <c r="D23" t="n">
-        <v>64.85586339511094</v>
+        <v>65.09916798168506</v>
       </c>
       <c r="E23" t="n">
-        <v>189.5694841687104</v>
+        <v>64.86199999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>-333240.0533591809</v>
+        <v>189.987</v>
       </c>
       <c r="G23" t="n">
-        <v>364.4015226170408</v>
+        <v>190.4822125222799</v>
+      </c>
+      <c r="H23" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>156.5999611150655</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +1126,25 @@
         <v>34.949</v>
       </c>
       <c r="C24" t="n">
-        <v>35.1355023785565</v>
+        <v>34.76483642720181</v>
       </c>
       <c r="D24" t="n">
-        <v>68.3531168732392</v>
+        <v>68.56046294113423</v>
       </c>
       <c r="E24" t="n">
-        <v>191.1964603884113</v>
+        <v>68.34099999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>-352279.0959812657</v>
+        <v>191.605</v>
       </c>
       <c r="G24" t="n">
-        <v>356.4903376656329</v>
+        <v>192.0923525206413</v>
+      </c>
+      <c r="H24" t="n">
+        <v>160.541</v>
+      </c>
+      <c r="I24" t="n">
+        <v>158.1841604501619</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1155,25 @@
         <v>35.259</v>
       </c>
       <c r="C25" t="n">
-        <v>35.45366267626574</v>
+        <v>35.06374650163677</v>
       </c>
       <c r="D25" t="n">
-        <v>71.88265461241446</v>
+        <v>72.05194082725023</v>
       </c>
       <c r="E25" t="n">
-        <v>192.7654676791216</v>
+        <v>71.851</v>
       </c>
       <c r="F25" t="n">
-        <v>-371477.9210495653</v>
+        <v>193.165</v>
       </c>
       <c r="G25" t="n">
-        <v>349.3365384325882</v>
+        <v>193.644326761391</v>
+      </c>
+      <c r="H25" t="n">
+        <v>161.926</v>
+      </c>
+      <c r="I25" t="n">
+        <v>159.7111243133248</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1184,25 @@
         <v>35.555</v>
       </c>
       <c r="C26" t="n">
-        <v>35.76252523567283</v>
+        <v>35.3567925814493</v>
       </c>
       <c r="D26" t="n">
-        <v>75.44354290589098</v>
+        <v>75.57301677399681</v>
       </c>
       <c r="E26" t="n">
-        <v>194.2810448508635</v>
+        <v>75.392</v>
       </c>
       <c r="F26" t="n">
-        <v>-390830.9647361813</v>
+        <v>194.672</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8431338305314</v>
+        <v>195.1428388743493</v>
+      </c>
+      <c r="H26" t="n">
+        <v>163.259</v>
+      </c>
+      <c r="I26" t="n">
+        <v>161.1854646617769</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1213,25 @@
         <v>35.837</v>
       </c>
       <c r="C27" t="n">
-        <v>36.06217036933772</v>
+        <v>35.64394471798067</v>
       </c>
       <c r="D27" t="n">
-        <v>79.03485598015645</v>
+        <v>79.12310287800719</v>
       </c>
       <c r="E27" t="n">
-        <v>195.7471778509525</v>
+        <v>78.962</v>
       </c>
       <c r="F27" t="n">
-        <v>-410333.0886472248</v>
+        <v>196.129</v>
       </c>
       <c r="G27" t="n">
-        <v>336.9288215164979</v>
+        <v>196.5920149524129</v>
+      </c>
+      <c r="H27" t="n">
+        <v>164.545</v>
+      </c>
+      <c r="I27" t="n">
+        <v>162.6112307061414</v>
       </c>
     </row>
     <row r="28">
@@ -1076,19 +1242,25 @@
         <v>36.106</v>
       </c>
       <c r="C28" t="n">
-        <v>36.35267997609882</v>
+        <v>35.92517364970794</v>
       </c>
       <c r="D28" t="n">
-        <v>82.65567617558983</v>
+        <v>82.70160827684056</v>
       </c>
       <c r="E28" t="n">
-        <v>197.1673866190587</v>
+        <v>82.559</v>
       </c>
       <c r="F28" t="n">
-        <v>-429979.5290339627</v>
+        <v>197.54</v>
       </c>
       <c r="G28" t="n">
-        <v>331.5249512914565</v>
+        <v>197.9954942395621</v>
+      </c>
+      <c r="H28" t="n">
+        <v>165.787</v>
+      </c>
+      <c r="I28" t="n">
+        <v>163.9919967511156</v>
       </c>
     </row>
     <row r="29">
@@ -1099,19 +1271,25 @@
         <v>36.363</v>
       </c>
       <c r="C29" t="n">
-        <v>36.63413719527633</v>
+        <v>36.20045065245351</v>
       </c>
       <c r="D29" t="n">
-        <v>86.30509408697324</v>
+        <v>86.30793920984807</v>
       </c>
       <c r="E29" t="n">
-        <v>198.5447955263907</v>
+        <v>86.18300000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>-449765.8538342816</v>
+        <v>198.908</v>
       </c>
       <c r="G29" t="n">
-        <v>326.5731662000721</v>
+        <v>199.3565026878263</v>
+      </c>
+      <c r="H29" t="n">
+        <v>166.988</v>
+      </c>
+      <c r="I29" t="n">
+        <v>165.330933538495</v>
       </c>
     </row>
     <row r="30">
@@ -1122,19 +1300,25 @@
         <v>36.61</v>
       </c>
       <c r="C30" t="n">
-        <v>36.90662614572834</v>
+        <v>36.46974742635081</v>
       </c>
       <c r="D30" t="n">
-        <v>89.98220867389394</v>
+        <v>89.94149906599657</v>
       </c>
       <c r="E30" t="n">
-        <v>199.8821909874292</v>
+        <v>89.831</v>
       </c>
       <c r="F30" t="n">
-        <v>-469687.9260909078</v>
+        <v>200.235</v>
       </c>
       <c r="G30" t="n">
-        <v>322.0235513865121</v>
+        <v>200.6779131257311</v>
+      </c>
+      <c r="H30" t="n">
+        <v>168.152</v>
+      </c>
+      <c r="I30" t="n">
+        <v>166.6308666765648</v>
       </c>
     </row>
     <row r="31">
@@ -1145,19 +1329,25 @@
         <v>36.847</v>
       </c>
       <c r="C31" t="n">
-        <v>37.1702317267718</v>
+        <v>36.73303600960837</v>
       </c>
       <c r="D31" t="n">
-        <v>93.68612734830469</v>
+        <v>93.60168842179706</v>
       </c>
       <c r="E31" t="n">
-        <v>201.1820689494605</v>
+        <v>93.504</v>
       </c>
       <c r="F31" t="n">
-        <v>-489741.8726051307</v>
+        <v>201.524</v>
       </c>
       <c r="G31" t="n">
-        <v>317.8331677509594</v>
+        <v>201.9622948602447</v>
+      </c>
+      <c r="H31" t="n">
+        <v>169.281</v>
+      </c>
+      <c r="I31" t="n">
+        <v>167.8943248631407</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1358,25 @@
         <v>37.076</v>
       </c>
       <c r="C32" t="n">
-        <v>37.42503946475659</v>
+        <v>36.99028871204951</v>
       </c>
       <c r="D32" t="n">
-        <v>97.41596604457196</v>
+        <v>97.28790507164814</v>
       </c>
       <c r="E32" t="n">
-        <v>202.4466743220182</v>
+        <v>97.20099999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>-509924.0569214826</v>
+        <v>202.776</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9648803184793</v>
+        <v>203.2119548637414</v>
+      </c>
+      <c r="H32" t="n">
+        <v>170.376</v>
+      </c>
+      <c r="I32" t="n">
+        <v>169.1235799696626</v>
       </c>
     </row>
     <row r="33">
@@ -1191,19 +1387,25 @@
         <v>37.298</v>
       </c>
       <c r="C33" t="n">
-        <v>37.67113539370848</v>
+        <v>37.24147806340988</v>
       </c>
       <c r="D33" t="n">
-        <v>101.1708492759664</v>
+        <v>100.9995440523061</v>
       </c>
       <c r="E33" t="n">
-        <v>203.6780339342317</v>
+        <v>100.919</v>
       </c>
       <c r="F33" t="n">
-        <v>-530231.0559201518</v>
+        <v>203.996</v>
       </c>
       <c r="G33" t="n">
-        <v>310.3864145389922</v>
+        <v>204.4289722031058</v>
+      </c>
+      <c r="H33" t="n">
+        <v>171.441</v>
+      </c>
+      <c r="I33" t="n">
+        <v>170.320680581079</v>
       </c>
     </row>
     <row r="34">
@@ -1214,19 +1416,25 @@
         <v>37.513</v>
       </c>
       <c r="C34" t="n">
-        <v>37.90860596166144</v>
+        <v>37.48657677276308</v>
       </c>
       <c r="D34" t="n">
-        <v>104.9499101805615</v>
+        <v>104.7359976627671</v>
       </c>
       <c r="E34" t="n">
-        <v>204.8779842546086</v>
+        <v>104.66</v>
       </c>
       <c r="F34" t="n">
-        <v>-550659.6394341862</v>
+        <v>205.183</v>
       </c>
       <c r="G34" t="n">
-        <v>307.0695904762517</v>
+        <v>205.6152269994407</v>
+      </c>
+      <c r="H34" t="n">
+        <v>172.477</v>
+      </c>
+      <c r="I34" t="n">
+        <v>171.4874802332096</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1445,25 @@
         <v>37.723</v>
       </c>
       <c r="C35" t="n">
-        <v>38.13753795654942</v>
+        <v>37.72555769641876</v>
       </c>
       <c r="D35" t="n">
-        <v>108.7522905587867</v>
+        <v>108.4966554805343</v>
       </c>
       <c r="E35" t="n">
-        <v>206.0481948414713</v>
+        <v>108.422</v>
       </c>
       <c r="F35" t="n">
-        <v>-571206.7524180685</v>
+        <v>206.341</v>
       </c>
       <c r="G35" t="n">
-        <v>303.9896970083363</v>
+        <v>206.772424929028</v>
+      </c>
+      <c r="H35" t="n">
+        <v>173.486</v>
+      </c>
+      <c r="I35" t="n">
+        <v>172.6256613228055</v>
       </c>
     </row>
     <row r="36">
@@ -1260,19 +1474,25 @@
         <v>37.928</v>
       </c>
       <c r="C36" t="n">
-        <v>38.35801844712493</v>
+        <v>37.95839381233008</v>
       </c>
       <c r="D36" t="n">
-        <v>112.5771409043538</v>
+        <v>112.2809043750143</v>
       </c>
       <c r="E36" t="n">
-        <v>207.1901882896557</v>
+        <v>112.204</v>
       </c>
       <c r="F36" t="n">
-        <v>-591869.4992804757</v>
+        <v>207.47</v>
       </c>
       <c r="G36" t="n">
-        <v>301.1249770998739</v>
+        <v>207.902118064807</v>
+      </c>
+      <c r="H36" t="n">
+        <v>174.469</v>
+      </c>
+      <c r="I36" t="n">
+        <v>173.7367554624904</v>
       </c>
     </row>
     <row r="37">
@@ -1283,19 +1503,25 @@
         <v>38.129</v>
       </c>
       <c r="C37" t="n">
-        <v>38.57013473552094</v>
+        <v>38.18505819954471</v>
       </c>
       <c r="D37" t="n">
-        <v>116.4236204298818</v>
+        <v>116.088128518617</v>
       </c>
       <c r="E37" t="n">
-        <v>208.3053572835348</v>
+        <v>116.007</v>
       </c>
       <c r="F37" t="n">
-        <v>-612645.13006249</v>
+        <v>208.573</v>
       </c>
       <c r="G37" t="n">
-        <v>298.4562018405886</v>
+        <v>209.0057226953089</v>
+      </c>
+      <c r="H37" t="n">
+        <v>175.428</v>
+      </c>
+      <c r="I37" t="n">
+        <v>174.8221608966288</v>
       </c>
     </row>
     <row r="38">
@@ -1306,19 +1532,25 @@
         <v>38.326</v>
       </c>
       <c r="C38" t="n">
-        <v>38.77397431890518</v>
+        <v>38.40552402159445</v>
       </c>
       <c r="D38" t="n">
-        <v>120.2908970882504</v>
+        <v>119.9177093960058</v>
       </c>
       <c r="E38" t="n">
-        <v>209.3949792459739</v>
+        <v>119.83</v>
       </c>
       <c r="F38" t="n">
-        <v>-633531.0281972556</v>
+        <v>209.649</v>
       </c>
       <c r="G38" t="n">
-        <v>295.9663159167131</v>
+        <v>210.0845346322871</v>
+      </c>
+      <c r="H38" t="n">
+        <v>176.363</v>
+      </c>
+      <c r="I38" t="n">
+        <v>175.8831574731214</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1561,25 @@
         <v>38.52</v>
       </c>
       <c r="C39" t="n">
-        <v>38.96962485828878</v>
+        <v>38.61976451298391</v>
       </c>
       <c r="D39" t="n">
-        <v>124.1781475904913</v>
+        <v>123.7690258118475</v>
       </c>
       <c r="E39" t="n">
-        <v>210.4602289788205</v>
+        <v>123.672</v>
       </c>
       <c r="F39" t="n">
-        <v>-654524.6996311446</v>
+        <v>210.702</v>
       </c>
       <c r="G39" t="n">
-        <v>293.6401409415011</v>
+        <v>211.1397424201539</v>
+      </c>
+      <c r="H39" t="n">
+        <v>177.277</v>
+      </c>
+      <c r="I39" t="n">
+        <v>176.9209195715062</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1590,25 @@
         <v>38.711</v>
       </c>
       <c r="C40" t="n">
-        <v>39.15717415300303</v>
+        <v>38.8277529681345</v>
       </c>
       <c r="D40" t="n">
-        <v>128.0845574208545</v>
+        <v>127.6414538973384</v>
       </c>
       <c r="E40" t="n">
-        <v>211.5021896165977</v>
+        <v>127.534</v>
       </c>
       <c r="F40" t="n">
-        <v>-675623.7631222169</v>
+        <v>211.732</v>
       </c>
       <c r="G40" t="n">
-        <v>291.4641259381042</v>
+        <v>212.1724387831586</v>
+      </c>
+      <c r="H40" t="n">
+        <v>178.17</v>
+      </c>
+      <c r="I40" t="n">
+        <v>177.9365273132557</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1619,25 @@
         <v>38.899</v>
       </c>
       <c r="C41" t="n">
-        <v>39.33671011969729</v>
+        <v>39.0294627322869</v>
       </c>
       <c r="D41" t="n">
-        <v>132.009320849556</v>
+        <v>131.5343671157266</v>
       </c>
       <c r="E41" t="n">
-        <v>212.5218621565228</v>
+        <v>131.414</v>
       </c>
       <c r="F41" t="n">
-        <v>-696825.9415608827</v>
+        <v>212.74</v>
       </c>
       <c r="G41" t="n">
-        <v>289.4261364718034</v>
+        <v>213.1836305851213</v>
+      </c>
+      <c r="H41" t="n">
+        <v>179.044</v>
+      </c>
+      <c r="I41" t="n">
+        <v>178.9309763210987</v>
       </c>
     </row>
     <row r="42">
@@ -1398,19 +1648,25 @@
         <v>39.085</v>
       </c>
       <c r="C42" t="n">
-        <v>39.50832077496526</v>
+        <v>39.22486719397507</v>
       </c>
       <c r="D42" t="n">
-        <v>135.9516409436146</v>
+        <v>135.4471362670059</v>
       </c>
       <c r="E42" t="n">
-        <v>213.5201737812966</v>
+        <v>135.314</v>
       </c>
       <c r="F42" t="n">
-        <v>-718129.0541815717</v>
+        <v>213.727</v>
       </c>
       <c r="G42" t="n">
-        <v>287.515275635157</v>
+        <v>214.1742475277988</v>
+      </c>
+      <c r="H42" t="n">
+        <v>179.899</v>
+      </c>
+      <c r="I42" t="n">
+        <v>179.9051862470569</v>
       </c>
     </row>
     <row r="43">
@@ -1421,19 +1677,25 @@
         <v>39.269</v>
       </c>
       <c r="C43" t="n">
-        <v>39.67209422090038</v>
+        <v>39.41393977876934</v>
       </c>
       <c r="D43" t="n">
-        <v>139.9107295761019</v>
+        <v>139.3791294919232</v>
       </c>
       <c r="E43" t="n">
-        <v>214.4979851536618</v>
+        <v>139.231</v>
       </c>
       <c r="F43" t="n">
-        <v>-739531.0095539116</v>
+        <v>214.695</v>
       </c>
       <c r="G43" t="n">
-        <v>285.7217314205697</v>
+        <v>215.1451497748585</v>
+      </c>
+      <c r="H43" t="n">
+        <v>180.736</v>
+      </c>
+      <c r="I43" t="n">
+        <v>180.860008251033</v>
       </c>
     </row>
     <row r="44">
@@ -1444,19 +1706,25 @@
         <v>39.45</v>
       </c>
       <c r="C44" t="n">
-        <v>39.82811863302954</v>
+        <v>39.59665394404959</v>
       </c>
       <c r="D44" t="n">
-        <v>143.8858074340708</v>
+        <v>143.3297122754123</v>
       </c>
       <c r="E44" t="n">
-        <v>215.4560968315075</v>
+        <v>143.167</v>
       </c>
       <c r="F44" t="n">
-        <v>-761029.7992582608</v>
+        <v>215.643</v>
       </c>
       <c r="G44" t="n">
-        <v>284.0366460597206</v>
+        <v>216.0971346568787</v>
+      </c>
+      <c r="H44" t="n">
+        <v>181.556</v>
+      </c>
+      <c r="I44" t="n">
+        <v>181.796231581208</v>
       </c>
     </row>
     <row r="45">
@@ -1467,19 +1735,25 @@
         <v>39.629</v>
       </c>
       <c r="C45" t="n">
-        <v>39.97648225018771</v>
+        <v>39.77298317461909</v>
       </c>
       <c r="D45" t="n">
-        <v>147.8761040253784</v>
+        <v>147.2982474495498</v>
       </c>
       <c r="E45" t="n">
-        <v>216.3952549277732</v>
+        <v>147.121</v>
       </c>
       <c r="F45" t="n">
-        <v>-782623.492164046</v>
+        <v>216.573</v>
       </c>
       <c r="G45" t="n">
-        <v>282.4520037348885</v>
+        <v>217.0309425871809</v>
+      </c>
+      <c r="H45" t="n">
+        <v>182.359</v>
+      </c>
+      <c r="I45" t="n">
+        <v>182.7145893826682</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1764,25 @@
         <v>39.806</v>
       </c>
       <c r="C46" t="n">
-        <v>40.11727336598464</v>
+        <v>39.9429009790082</v>
       </c>
       <c r="D46" t="n">
-        <v>151.8808576845781</v>
+        <v>151.2840951961073</v>
       </c>
       <c r="E46" t="n">
-        <v>217.3161561193921</v>
+        <v>151.093</v>
       </c>
       <c r="F46" t="n">
-        <v>-804310.2292407472</v>
+        <v>217.486</v>
       </c>
       <c r="G46" t="n">
-        <v>280.9605337234233</v>
+        <v>217.9472622973967</v>
+      </c>
+      <c r="H46" t="n">
+        <v>183.147</v>
+      </c>
+      <c r="I46" t="n">
+        <v>183.6157638403951</v>
       </c>
     </row>
     <row r="47">
@@ -1513,19 +1793,25 @@
         <v>39.98</v>
       </c>
       <c r="C47" t="n">
-        <v>40.25058032158407</v>
+        <v>40.10638088634648</v>
       </c>
       <c r="D47" t="n">
-        <v>155.8993155780257</v>
+        <v>155.2866130487632</v>
       </c>
       <c r="E47" t="n">
-        <v>218.2194520931048</v>
+        <v>155.082</v>
       </c>
       <c r="F47" t="n">
-        <v>-826088.2188409461</v>
+        <v>218.383</v>
       </c>
       <c r="G47" t="n">
-        <v>279.5556265611929</v>
+        <v>218.846735484535</v>
+      </c>
+      <c r="H47" t="n">
+        <v>183.92</v>
+      </c>
+      <c r="I47" t="n">
+        <v>184.5003907461072</v>
       </c>
     </row>
     <row r="48">
@@ -1536,19 +1822,25 @@
         <v>40.151</v>
       </c>
       <c r="C48" t="n">
-        <v>40.37649149956944</v>
+        <v>40.2633964437054</v>
       </c>
       <c r="D48" t="n">
-        <v>159.9307337083206</v>
+        <v>159.3051558950266</v>
       </c>
       <c r="E48" t="n">
-        <v>219.10575350245</v>
+        <v>159.089</v>
       </c>
       <c r="F48" t="n">
-        <v>-847955.7324029494</v>
+        <v>219.264</v>
       </c>
       <c r="G48" t="n">
-        <v>278.2312612324437</v>
+        <v>219.7299609471887</v>
+      </c>
+      <c r="H48" t="n">
+        <v>184.679</v>
+      </c>
+      <c r="I48" t="n">
+        <v>185.3690635647109</v>
       </c>
     </row>
     <row r="49">
@@ -1559,19 +1851,25 @@
         <v>40.318</v>
       </c>
       <c r="C49" t="n">
-        <v>40.49509531871341</v>
+        <v>40.41392121383274</v>
       </c>
       <c r="D49" t="n">
-        <v>163.9743769181784</v>
+        <v>163.3390759779147</v>
       </c>
       <c r="E49" t="n">
-        <v>219.975633499046</v>
+        <v>163.112</v>
       </c>
       <c r="F49" t="n">
-        <v>-869911.1005273379</v>
+        <v>220.129</v>
       </c>
       <c r="G49" t="n">
-        <v>276.9819417341319</v>
+        <v>220.5974982768252</v>
+      </c>
+      <c r="H49" t="n">
+        <v>185.424</v>
+      </c>
+      <c r="I49" t="n">
+        <v>186.2223370647466</v>
       </c>
     </row>
     <row r="50">
@@ -1582,19 +1880,25 @@
         <v>40.482</v>
       </c>
       <c r="C50" t="n">
-        <v>40.60648022950204</v>
+        <v>40.5579287732137</v>
       </c>
       <c r="D50" t="n">
-        <v>168.0295188938212</v>
+        <v>167.3877228974215</v>
       </c>
       <c r="E50" t="n">
-        <v>220.8296308919705</v>
+        <v>167.152</v>
       </c>
       <c r="F50" t="n">
-        <v>-891952.709387637</v>
+        <v>220.979</v>
       </c>
       <c r="G50" t="n">
-        <v>275.8026416393215</v>
+        <v>221.4498711603865</v>
+      </c>
+      <c r="H50" t="n">
+        <v>186.156</v>
+      </c>
+      <c r="I50" t="n">
+        <v>187.0607305677532</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1909,25 @@
         <v>40.641</v>
       </c>
       <c r="C51" t="n">
-        <v>40.71073471029165</v>
+        <v>40.6953927104062</v>
       </c>
       <c r="D51" t="n">
-        <v>172.0954421679515</v>
+        <v>171.450443611806</v>
       </c>
       <c r="E51" t="n">
-        <v>221.6682529812707</v>
+        <v>171.208</v>
       </c>
       <c r="F51" t="n">
-        <v>-914078.997440275</v>
+        <v>221.816</v>
       </c>
       <c r="G51" t="n">
-        <v>274.6887555098178</v>
+        <v>222.2875703422997</v>
+      </c>
+      <c r="H51" t="n">
+        <v>186.875</v>
+      </c>
+      <c r="I51" t="n">
+        <v>187.8847308635665</v>
       </c>
     </row>
     <row r="52">
@@ -1628,19 +1938,25 @@
         <v>40.796</v>
       </c>
       <c r="C52" t="n">
-        <v>40.80794726399838</v>
+        <v>40.82628662460681</v>
       </c>
       <c r="D52" t="n">
-        <v>176.1714381223696</v>
+        <v>175.5265824387259</v>
       </c>
       <c r="E52" t="n">
-        <v>222.4919781051283</v>
+        <v>175.28</v>
       </c>
       <c r="F52" t="n">
-        <v>-936288.4524032718</v>
+        <v>222.638</v>
       </c>
       <c r="G52" t="n">
-        <v>273.6360561930299</v>
+        <v>223.1110562872001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>187.582</v>
+      </c>
+      <c r="I52" t="n">
+        <v>188.6947948319379</v>
       </c>
     </row>
     <row r="53">
@@ -1651,19 +1967,25 @@
         <v>40.945</v>
       </c>
       <c r="C53" t="n">
-        <v>40.89820641523751</v>
+        <v>40.95058412441163</v>
       </c>
       <c r="D53" t="n">
-        <v>180.2568069902833</v>
+        <v>179.6154810562383</v>
       </c>
       <c r="E53" t="n">
-        <v>223.3012579347152</v>
+        <v>179.368</v>
       </c>
       <c r="F53" t="n">
-        <v>-958579.6084767641</v>
+        <v>223.448</v>
       </c>
       <c r="G53" t="n">
-        <v>272.6406571901517</v>
+        <v>223.9207615789373</v>
+      </c>
+      <c r="H53" t="n">
+        <v>188.278</v>
+      </c>
+      <c r="I53" t="n">
+        <v>189.4913518052745</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1996,25 @@
         <v>41.088</v>
       </c>
       <c r="C54" t="n">
-        <v>40.98160070784406</v>
+        <v>41.06825882674231</v>
       </c>
       <c r="D54" t="n">
-        <v>184.3508578583509</v>
+        <v>183.7164785036843</v>
       </c>
       <c r="E54" t="n">
-        <v>224.096519546153</v>
+        <v>183.469</v>
       </c>
       <c r="F54" t="n">
-        <v>-980951.0437816449</v>
+        <v>224.244</v>
       </c>
       <c r="G54" t="n">
-        <v>271.6989794084205</v>
+        <v>224.7170930865988</v>
+      </c>
+      <c r="H54" t="n">
+        <v>188.962</v>
+      </c>
+      <c r="I54" t="n">
+        <v>190.2748057025849</v>
       </c>
     </row>
     <row r="55">
@@ -1697,19 +2025,25 @@
         <v>41.226</v>
       </c>
       <c r="C55" t="n">
-        <v>41.05821870271783</v>
+        <v>41.17928435591246</v>
       </c>
       <c r="D55" t="n">
-        <v>188.4529086684928</v>
+        <v>187.8289111824741</v>
       </c>
       <c r="E55" t="n">
-        <v>224.8781672950608</v>
+        <v>187.585</v>
       </c>
       <c r="F55" t="n">
-        <v>-1003401.37799533</v>
+        <v>225.028</v>
       </c>
       <c r="G55" t="n">
-        <v>270.8077217144644</v>
+        <v>225.5004339241884</v>
+      </c>
+      <c r="H55" t="n">
+        <v>189.635</v>
+      </c>
+      <c r="I55" t="n">
+        <v>191.0455369607111</v>
       </c>
     </row>
     <row r="56">
@@ -1720,19 +2054,25 @@
         <v>41.357</v>
       </c>
       <c r="C56" t="n">
-        <v>41.12814897594507</v>
+        <v>41.28363434281413</v>
       </c>
       <c r="D56" t="n">
-        <v>192.5622862195019</v>
+        <v>191.9521128567846</v>
       </c>
       <c r="E56" t="n">
-        <v>225.6465845158415</v>
+        <v>191.714</v>
       </c>
       <c r="F56" t="n">
-        <v>-1025929.270166042</v>
+        <v>225.8</v>
       </c>
       <c r="G56" t="n">
-        <v>269.9638347925598</v>
+        <v>226.2711452271059</v>
+      </c>
+      <c r="H56" t="n">
+        <v>190.297</v>
+      </c>
+      <c r="I56" t="n">
+        <v>191.8039042855253</v>
       </c>
     </row>
     <row r="57">
@@ -1743,19 +2083,25 @@
         <v>41.48</v>
       </c>
       <c r="C57" t="n">
-        <v>41.19148011715707</v>
+        <v>41.38128242420673</v>
       </c>
       <c r="D57" t="n">
-        <v>196.6783261684786</v>
+        <v>196.0854146541808</v>
       </c>
       <c r="E57" t="n">
-        <v>226.4021350650112</v>
+        <v>195.856</v>
       </c>
       <c r="F57" t="n">
-        <v>-1048533.416689083</v>
+        <v>226.56</v>
       </c>
       <c r="G57" t="n">
-        <v>269.1644978841663</v>
+        <v>227.0295677656047</v>
+      </c>
+      <c r="H57" t="n">
+        <v>190.95</v>
+      </c>
+      <c r="I57" t="n">
+        <v>192.5502462428643</v>
       </c>
     </row>
     <row r="58">
@@ -1766,19 +2112,25 @@
         <v>41.596</v>
       </c>
       <c r="C58" t="n">
-        <v>41.24830072809193</v>
+        <v>41.47220224209401</v>
       </c>
       <c r="D58" t="n">
-        <v>200.8003730321118</v>
+        <v>200.2281450661706</v>
       </c>
       <c r="E58" t="n">
-        <v>227.145164725438</v>
+        <v>200.01</v>
       </c>
       <c r="F58" t="n">
-        <v>-1071212.549430341</v>
+        <v>227.308</v>
       </c>
       <c r="G58" t="n">
-        <v>268.407098045948</v>
+        <v>227.7760234128568</v>
+      </c>
+      <c r="H58" t="n">
+        <v>191.592</v>
+      </c>
+      <c r="I58" t="n">
+        <v>193.2848827064848</v>
       </c>
     </row>
     <row r="59">
@@ -1789,19 +2141,25 @@
         <v>41.703</v>
       </c>
       <c r="C59" t="n">
-        <v>41.29869942133162</v>
+        <v>41.55636744317704</v>
       </c>
       <c r="D59" t="n">
-        <v>204.9277801878247</v>
+        <v>204.3796299487015</v>
       </c>
       <c r="E59" t="n">
-        <v>227.8760024862677</v>
+        <v>204.175</v>
       </c>
       <c r="F59" t="n">
-        <v>-1093965.433983901</v>
+        <v>228.046</v>
       </c>
       <c r="G59" t="n">
-        <v>267.6892116146865</v>
+        <v>228.5108164830681</v>
+      </c>
+      <c r="H59" t="n">
+        <v>192.225</v>
+      </c>
+      <c r="I59" t="n">
+        <v>194.0081161781877</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +2170,25 @@
         <v>41.803</v>
       </c>
       <c r="C60" t="n">
-        <v>41.34276481918985</v>
+        <v>41.63375167837241</v>
       </c>
       <c r="D60" t="n">
-        <v>209.0599098748027</v>
+        <v>208.5391925226055</v>
       </c>
       <c r="E60" t="n">
-        <v>228.5949617115139</v>
+        <v>208.35</v>
       </c>
       <c r="F60" t="n">
-        <v>-1116790.868051978</v>
+        <v>228.772</v>
       </c>
       <c r="G60" t="n">
-        <v>267.0085876107075</v>
+        <v>229.2342349532086</v>
+      </c>
+      <c r="H60" t="n">
+        <v>192.849</v>
+      </c>
+      <c r="I60" t="n">
+        <v>194.7202329934184</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +2199,25 @@
         <v>41.893</v>
       </c>
       <c r="C61" t="n">
-        <v>41.38058555273097</v>
+        <v>41.70432860238728</v>
       </c>
       <c r="D61" t="n">
-        <v>213.1961331949167</v>
+        <v>212.7061533739994</v>
       </c>
       <c r="E61" t="n">
-        <v>229.3023412087347</v>
+        <v>212.535</v>
       </c>
       <c r="F61" t="n">
-        <v>-1139687.679936618</v>
+        <v>229.487</v>
       </c>
       <c r="G61" t="n">
-        <v>266.3631328480378</v>
+        <v>229.9465515802976</v>
+      </c>
+      <c r="H61" t="n">
+        <v>193.464</v>
+      </c>
+      <c r="I61" t="n">
+        <v>195.4215044240648</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +2228,25 @@
         <v>41.974</v>
       </c>
       <c r="C62" t="n">
-        <v>41.41225026090225</v>
+        <v>41.76807187334349</v>
       </c>
       <c r="D62" t="n">
-        <v>217.3358301135534</v>
+        <v>216.8798304546443</v>
       </c>
       <c r="E62" t="n">
-        <v>229.9984262078762</v>
+        <v>216.728</v>
       </c>
       <c r="F62" t="n">
-        <v>-1162654.727133703</v>
+        <v>230.192</v>
       </c>
       <c r="G62" t="n">
-        <v>265.7508985505983</v>
+        <v>230.6480249247792</v>
+      </c>
+      <c r="H62" t="n">
+        <v>194.071</v>
+      </c>
+      <c r="I62" t="n">
+        <v>196.1121876887927</v>
       </c>
     </row>
     <row r="63">
@@ -1881,19 +2257,25 @@
         <v>42.107</v>
       </c>
       <c r="C63" t="n">
-        <v>41.45746619181156</v>
+        <v>41.87495210367952</v>
       </c>
       <c r="D63" t="n">
-        <v>225.6232089299447</v>
+        <v>225.2445919408682</v>
       </c>
       <c r="E63" t="n">
-        <v>231.3577910581568</v>
+        <v>225.137</v>
       </c>
       <c r="F63" t="n">
-        <v>-1208795.095630627</v>
+        <v>231.571</v>
       </c>
       <c r="G63" t="n">
-        <v>264.6189471647899</v>
+        <v>232.0194105811646</v>
+      </c>
+      <c r="H63" t="n">
+        <v>195.258</v>
+      </c>
+      <c r="I63" t="n">
+        <v>197.4627538159989</v>
       </c>
     </row>
     <row r="64">
@@ -1904,19 +2286,25 @@
         <v>42.2</v>
       </c>
       <c r="C64" t="n">
-        <v>41.47912185400222</v>
+        <v>41.95418169088725</v>
       </c>
       <c r="D64" t="n">
-        <v>233.9172633441092</v>
+        <v>233.6279679198262</v>
       </c>
       <c r="E64" t="n">
-        <v>232.6750989004717</v>
+        <v>233.569</v>
       </c>
       <c r="F64" t="n">
-        <v>-1255203.369618909</v>
+        <v>232.909</v>
       </c>
       <c r="G64" t="n">
-        <v>263.5996019305571</v>
+        <v>233.3502102974301</v>
+      </c>
+      <c r="H64" t="n">
+        <v>196.414</v>
+      </c>
+      <c r="I64" t="n">
+        <v>198.7737414636954</v>
       </c>
     </row>
     <row r="65">
@@ -1927,19 +2315,25 @@
         <v>42.252</v>
       </c>
       <c r="C65" t="n">
-        <v>41.4779265745337</v>
+        <v>42.00554999328241</v>
       </c>
       <c r="D65" t="n">
-        <v>242.2133522335069</v>
+        <v>242.0244071981683</v>
       </c>
       <c r="E65" t="n">
-        <v>233.9522255900658</v>
+        <v>242.015</v>
       </c>
       <c r="F65" t="n">
-        <v>-1301871.336660928</v>
+        <v>234.208</v>
       </c>
       <c r="G65" t="n">
-        <v>262.6813823194991</v>
+        <v>234.6420680590344</v>
+      </c>
+      <c r="H65" t="n">
+        <v>197.54</v>
+      </c>
+      <c r="I65" t="n">
+        <v>200.0467879800928</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +2344,25 @@
         <v>42.263</v>
       </c>
       <c r="C66" t="n">
-        <v>41.45458975067012</v>
+        <v>42.02884639959167</v>
       </c>
       <c r="D66" t="n">
-        <v>250.5069763483897</v>
+        <v>250.4283164573442</v>
       </c>
       <c r="E66" t="n">
-        <v>235.190900123859</v>
+        <v>250.467</v>
       </c>
       <c r="F66" t="n">
-        <v>-1348791.144493852</v>
+        <v>235.47</v>
       </c>
       <c r="G66" t="n">
-        <v>261.8542113996328</v>
+        <v>235.896474293709</v>
+      </c>
+      <c r="H66" t="n">
+        <v>198.637</v>
+      </c>
+      <c r="I66" t="n">
+        <v>201.2833785622102</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +2373,25 @@
         <v>42.233</v>
       </c>
       <c r="C67" t="n">
-        <v>41.40982083802067</v>
+        <v>42.02386032381526</v>
       </c>
       <c r="D67" t="n">
-        <v>258.7937783246124</v>
+        <v>258.8340602591526</v>
       </c>
       <c r="E67" t="n">
-        <v>236.392721675679</v>
+        <v>258.917</v>
       </c>
       <c r="F67" t="n">
-        <v>-1395955.27340514</v>
+        <v>236.695</v>
       </c>
       <c r="G67" t="n">
-        <v>261.1092113752594</v>
+        <v>237.1147836826885</v>
+      </c>
+      <c r="H67" t="n">
+        <v>199.707</v>
+      </c>
+      <c r="I67" t="n">
+        <v>202.4848638660921</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +2402,25 @@
         <v>42.164</v>
       </c>
       <c r="C68" t="n">
-        <v>41.34432934095324</v>
+        <v>41.99038120107448</v>
       </c>
       <c r="D68" t="n">
-        <v>267.0695426943108</v>
+        <v>267.2359610503667</v>
       </c>
       <c r="E68" t="n">
-        <v>237.5591742308385</v>
+        <v>267.357</v>
       </c>
       <c r="F68" t="n">
-        <v>-1443356.511767726</v>
+        <v>237.884</v>
       </c>
       <c r="G68" t="n">
-        <v>260.4385336423655</v>
+        <v>238.298230462111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>200.751</v>
+      </c>
+      <c r="I68" t="n">
+        <v>203.65247514071</v>
       </c>
     </row>
     <row r="69">
@@ -2019,19 +2431,25 @@
         <v>42.055</v>
       </c>
       <c r="C69" t="n">
-        <v>41.25882480479663</v>
+        <v>41.92819848423385</v>
       </c>
       <c r="D69" t="n">
-        <v>275.3301958948464</v>
+        <v>275.6282991666092</v>
       </c>
       <c r="E69" t="n">
-        <v>238.6916392149289</v>
+        <v>275.78</v>
       </c>
       <c r="F69" t="n">
-        <v>-1490987.934295627</v>
+        <v>239.038</v>
       </c>
       <c r="G69" t="n">
-        <v>259.8352167702341</v>
+        <v>239.4479416273878</v>
+      </c>
+      <c r="H69" t="n">
+        <v>201.77</v>
+      </c>
+      <c r="I69" t="n">
+        <v>204.7873372920057</v>
       </c>
     </row>
     <row r="70">
@@ -2042,19 +2460,25 @@
         <v>41.91</v>
       </c>
       <c r="C70" t="n">
-        <v>41.15401680945958</v>
+        <v>41.83710164113702</v>
       </c>
       <c r="D70" t="n">
-        <v>283.57180627634</v>
+        <v>284.005312835615</v>
       </c>
       <c r="E70" t="n">
-        <v>239.7914064379428</v>
+        <v>284.177</v>
       </c>
       <c r="F70" t="n">
-        <v>-1538842.882652025</v>
+        <v>240.157</v>
       </c>
       <c r="G70" t="n">
-        <v>259.2930672165459</v>
+        <v>240.5649483762369</v>
+      </c>
+      <c r="H70" t="n">
+        <v>202.765</v>
+      </c>
+      <c r="I70" t="n">
+        <v>205.8904802077636</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2489,25 @@
         <v>41.731</v>
       </c>
       <c r="C71" t="n">
-        <v>41.03061496418044</v>
+        <v>41.71688015233255</v>
       </c>
       <c r="D71" t="n">
-        <v>291.7905841080453</v>
+        <v>292.3611981799929</v>
       </c>
       <c r="E71" t="n">
-        <v>240.8596836164175</v>
+        <v>292.542</v>
       </c>
       <c r="F71" t="n">
-        <v>-1586914.948100011</v>
+        <v>241.244</v>
       </c>
       <c r="G71" t="n">
-        <v>258.806558655885</v>
+        <v>241.6501960650036</v>
+      </c>
+      <c r="H71" t="n">
+        <v>203.738</v>
+      </c>
+      <c r="I71" t="n">
+        <v>206.962848613955</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2518,25 @@
         <v>41.52</v>
       </c>
       <c r="C72" t="n">
-        <v>40.88932890318358</v>
+        <v>41.56732350919224</v>
       </c>
       <c r="D72" t="n">
-        <v>299.9828815837679</v>
+        <v>300.6901092195718</v>
       </c>
       <c r="E72" t="n">
-        <v>241.8976046897099</v>
+        <v>300.867</v>
       </c>
       <c r="F72" t="n">
-        <v>-1635197.955933911</v>
+        <v>242.298</v>
       </c>
       <c r="G72" t="n">
-        <v>258.3707466315409</v>
+        <v>242.7045529042054</v>
+      </c>
+      <c r="H72" t="n">
+        <v>204.689</v>
+      </c>
+      <c r="I72" t="n">
+        <v>208.0053106853083</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2547,25 @@
         <v>41.28</v>
       </c>
       <c r="C73" t="n">
-        <v>40.73086828206833</v>
+        <v>41.38822121234704</v>
       </c>
       <c r="D73" t="n">
-        <v>308.1451928264895</v>
+        <v>308.9861578734051</v>
       </c>
       <c r="E73" t="n">
-        <v>242.9062371091381</v>
+        <v>309.148</v>
       </c>
       <c r="F73" t="n">
-        <v>-1683685.951468443</v>
+        <v>243.32</v>
       </c>
       <c r="G73" t="n">
-        <v>257.9811958872704</v>
+        <v>243.7288175801586</v>
+      </c>
+      <c r="H73" t="n">
+        <v>205.619</v>
+      </c>
+      <c r="I73" t="n">
+        <v>209.0186655944008</v>
       </c>
     </row>
     <row r="74">
@@ -2134,19 +2576,25 @@
         <v>41.014</v>
       </c>
       <c r="C74" t="n">
-        <v>40.55594277479241</v>
+        <v>41.17936277038025</v>
       </c>
       <c r="D74" t="n">
-        <v>316.2741538923326</v>
+        <v>317.2434139614874</v>
       </c>
       <c r="E74" t="n">
-        <v>243.8865882485624</v>
+        <v>317.377</v>
       </c>
       <c r="F74" t="n">
-        <v>-1732373.187395592</v>
+        <v>244.312</v>
       </c>
       <c r="G74" t="n">
-        <v>257.6339182430594</v>
+        <v>244.7237259580195</v>
+      </c>
+      <c r="H74" t="n">
+        <v>206.528</v>
+      </c>
+      <c r="I74" t="n">
+        <v>210.0036501525302</v>
       </c>
     </row>
     <row r="75">
@@ -2157,19 +2605,25 @@
         <v>40.724</v>
       </c>
       <c r="C75" t="n">
-        <v>40.36526207114051</v>
+        <v>40.94053769873104</v>
       </c>
       <c r="D75" t="n">
-        <v>324.366542773972</v>
+        <v>325.4559052062319</v>
       </c>
       <c r="E75" t="n">
-        <v>244.8396110604923</v>
+        <v>325.552</v>
       </c>
       <c r="F75" t="n">
-        <v>-1781254.112346262</v>
+        <v>245.273</v>
       </c>
       <c r="G75" t="n">
-        <v>257.3253192794754</v>
+        <v>245.6899569959707</v>
+      </c>
+      <c r="H75" t="n">
+        <v>207.418</v>
+      </c>
+      <c r="I75" t="n">
+        <v>210.9609446704091</v>
       </c>
     </row>
     <row r="76">
@@ -2180,19 +2634,25 @@
         <v>40.415</v>
       </c>
       <c r="C76" t="n">
-        <v>40.15953587459105</v>
+        <v>40.67153551877033</v>
       </c>
       <c r="D76" t="n">
-        <v>332.4192794035808</v>
+        <v>333.6176172337476</v>
       </c>
       <c r="E76" t="n">
-        <v>245.7662090818308</v>
+        <v>333.666</v>
       </c>
       <c r="F76" t="n">
-        <v>-1830323.36051653</v>
+        <v>246.206</v>
       </c>
       <c r="G76" t="n">
-        <v>257.0521524133099</v>
+        <v>246.6281379794031</v>
+      </c>
+      <c r="H76" t="n">
+        <v>208.289</v>
+      </c>
+      <c r="I76" t="n">
+        <v>211.8911781461521</v>
       </c>
     </row>
     <row r="77">
@@ -2203,19 +2663,25 @@
         <v>40.088</v>
       </c>
       <c r="C77" t="n">
-        <v>39.93947390051093</v>
+        <v>40.37214575701886</v>
       </c>
       <c r="D77" t="n">
-        <v>340.4294256553831</v>
+        <v>341.7224935749441</v>
       </c>
       <c r="E77" t="n">
-        <v>246.6672408769804</v>
+        <v>341.716</v>
       </c>
       <c r="F77" t="n">
-        <v>-1879575.742237441</v>
+        <v>247.111</v>
       </c>
       <c r="G77" t="n">
-        <v>256.8114792013095</v>
+        <v>247.5388491668094</v>
+      </c>
+      <c r="H77" t="n">
+        <v>209.142</v>
+      </c>
+      <c r="I77" t="n">
+        <v>212.794932871135</v>
       </c>
     </row>
     <row r="78">
@@ -2226,19 +2692,25 @@
         <v>39.745</v>
       </c>
       <c r="C78" t="n">
-        <v>39.70578587462198</v>
+        <v>40.04215794448285</v>
       </c>
       <c r="D78" t="n">
-        <v>348.3941853478754</v>
+        <v>349.7644356664941</v>
       </c>
       <c r="E78" t="n">
-        <v>247.5435239925342</v>
+        <v>349.7</v>
       </c>
       <c r="F78" t="n">
-        <v>-1929006.23538344</v>
+        <v>247.988</v>
       </c>
       <c r="G78" t="n">
-        <v>256.6006349128361</v>
+        <v>248.4226279249943</v>
+      </c>
+      <c r="H78" t="n">
+        <v>209.977</v>
+      </c>
+      <c r="I78" t="n">
+        <v>213.6727485303947</v>
       </c>
     </row>
     <row r="79">
@@ -2249,19 +2721,25 @@
         <v>39.391</v>
       </c>
       <c r="C79" t="n">
-        <v>39.45918153169332</v>
+        <v>39.68136161608757</v>
       </c>
       <c r="D79" t="n">
-        <v>356.3109042457622</v>
+        <v>357.7373028516723</v>
       </c>
       <c r="E79" t="n">
-        <v>248.3958384865972</v>
+        <v>357.614</v>
       </c>
       <c r="F79" t="n">
-        <v>-1978609.977528252</v>
+        <v>248.839</v>
       </c>
       <c r="G79" t="n">
-        <v>256.4171985770219</v>
+        <v>249.2799724195162</v>
+      </c>
+      <c r="H79" t="n">
+        <v>210.795</v>
+      </c>
+      <c r="I79" t="n">
+        <v>214.5251258627057</v>
       </c>
     </row>
     <row r="80">
@@ -2272,19 +2750,25 @@
         <v>39.027</v>
       </c>
       <c r="C80" t="n">
-        <v>39.20037061442247</v>
+        <v>39.2895463101927</v>
       </c>
       <c r="D80" t="n">
-        <v>364.1770700616514</v>
+        <v>365.6349123810892</v>
       </c>
       <c r="E80" t="n">
-        <v>249.2249300864869</v>
+        <v>365.456</v>
       </c>
       <c r="F80" t="n">
-        <v>-2028382.258768623</v>
+        <v>249.664</v>
       </c>
       <c r="G80" t="n">
-        <v>256.2589668436001</v>
+        <v>250.1113449165591</v>
+      </c>
+      <c r="H80" t="n">
+        <v>211.596</v>
+      </c>
+      <c r="I80" t="n">
+        <v>215.3525299358831</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2779,25 @@
         <v>38.655</v>
       </c>
       <c r="C81" t="n">
-        <v>38.93006287247446</v>
+        <v>38.86650156817601</v>
       </c>
       <c r="D81" t="n">
-        <v>371.9903124575412</v>
+        <v>373.4510394133354</v>
       </c>
       <c r="E81" t="n">
-        <v>250.0315130208042</v>
+        <v>373.224</v>
       </c>
       <c r="F81" t="n">
-        <v>-2078318.51514634</v>
+        <v>250.465</v>
       </c>
       <c r="G81" t="n">
-        <v>256.1239311054982</v>
+        <v>250.9171747443194</v>
+      </c>
+      <c r="H81" t="n">
+        <v>212.381</v>
+      </c>
+      <c r="I81" t="n">
+        <v>216.1553930848555</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2808,25 @@
         <v>38.277</v>
       </c>
       <c r="C82" t="n">
-        <v>38.64896806165429</v>
+        <v>38.41201693407502</v>
       </c>
       <c r="D82" t="n">
-        <v>379.7484030461292</v>
+        <v>381.1794170155487</v>
       </c>
       <c r="E82" t="n">
-        <v>250.8162725653567</v>
+        <v>380.917</v>
       </c>
       <c r="F82" t="n">
-        <v>-2128414.322607437</v>
+        <v>251.242</v>
       </c>
       <c r="G82" t="n">
-        <v>256.0102574204391</v>
+        <v>251.6978609551917</v>
+      </c>
+      <c r="H82" t="n">
+        <v>213.151</v>
+      </c>
+      <c r="I82" t="n">
+        <v>216.9341175533347</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2837,25 @@
         <v>37.321</v>
       </c>
       <c r="C83" t="n">
-        <v>37.90369542804929</v>
+        <v>37.13687472418491</v>
       </c>
       <c r="D83" t="n">
-        <v>398.8889974654007</v>
+        <v>400.0749507138854</v>
       </c>
       <c r="E83" t="n">
-        <v>252.6869562245719</v>
+        <v>399.818</v>
       </c>
       <c r="F83" t="n">
-        <v>-2254324.042892604</v>
+        <v>253.087</v>
       </c>
       <c r="G83" t="n">
-        <v>255.808871799537</v>
+        <v>253.5419462065868</v>
+      </c>
+      <c r="H83" t="n">
+        <v>215.009</v>
+      </c>
+      <c r="I83" t="n">
+        <v>218.7777174478152</v>
       </c>
     </row>
     <row r="84">
@@ -2364,433 +2866,25 @@
         <v>36.367</v>
       </c>
       <c r="C84" t="n">
-        <v>37.10652977484719</v>
+        <v>35.66062957401635</v>
       </c>
       <c r="D84" t="n">
-        <v>417.6435220078081</v>
+        <v>418.282774582683</v>
       </c>
       <c r="E84" t="n">
-        <v>254.4349485920494</v>
+        <v>418.239</v>
       </c>
       <c r="F84" t="n">
-        <v>-2381140.912504735</v>
+        <v>254.801</v>
       </c>
       <c r="G84" t="n">
-        <v>255.7082971802479</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B85" t="n">
-        <v>35.432</v>
-      </c>
-      <c r="C85" t="n">
-        <v>36.2685613839725</v>
-      </c>
-      <c r="D85" t="n">
-        <v>435.9888027739323</v>
-      </c>
-      <c r="E85" t="n">
-        <v>256.0691103526447</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-2508805.966281481</v>
-      </c>
-      <c r="G85" t="n">
-        <v>255.6902589111919</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B86" t="n">
-        <v>34.53</v>
-      </c>
-      <c r="C86" t="n">
-        <v>35.40088064454648</v>
-      </c>
-      <c r="D86" t="n">
-        <v>453.9072110387833</v>
-      </c>
-      <c r="E86" t="n">
-        <v>257.5976425209731</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-2637264.499212894</v>
-      </c>
-      <c r="G86" t="n">
-        <v>255.7398826668212</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B87" t="n">
-        <v>33.669</v>
-      </c>
-      <c r="C87" t="n">
-        <v>34.51457802769001</v>
-      </c>
-      <c r="D87" t="n">
-        <v>471.3866632987724</v>
-      </c>
-      <c r="E87" t="n">
-        <v>259.0281942274292</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-2766465.764544092</v>
-      </c>
-      <c r="G87" t="n">
-        <v>255.8449902304635</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>13000</v>
-      </c>
-      <c r="B88" t="n">
-        <v>32.855</v>
-      </c>
-      <c r="C88" t="n">
-        <v>33.62074406797508</v>
-      </c>
-      <c r="D88" t="n">
-        <v>488.420621307846</v>
-      </c>
-      <c r="E88" t="n">
-        <v>260.3679493507352</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-2896362.720251712</v>
-      </c>
-      <c r="G88" t="n">
-        <v>255.9955615100311</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B89" t="n">
-        <v>32.089</v>
-      </c>
-      <c r="C89" t="n">
-        <v>32.73046934959305</v>
-      </c>
-      <c r="D89" t="n">
-        <v>505.0080921055879</v>
-      </c>
-      <c r="E89" t="n">
-        <v>261.623696791214</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-3026911.814575801</v>
-      </c>
-      <c r="G89" t="n">
-        <v>256.1833189987923</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B90" t="n">
-        <v>31.373</v>
-      </c>
-      <c r="C90" t="n">
-        <v>31.85484449591669</v>
-      </c>
-      <c r="D90" t="n">
-        <v>521.1536280393025</v>
-      </c>
-      <c r="E90" t="n">
-        <v>262.8018879573416</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-3158072.80336348</v>
-      </c>
-      <c r="G90" t="n">
-        <v>256.4014035525315</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>14500</v>
-      </c>
-      <c r="B91" t="n">
-        <v>30.706</v>
-      </c>
-      <c r="C91" t="n">
-        <v>31.00496016153714</v>
-      </c>
-      <c r="D91" t="n">
-        <v>536.8673267815268</v>
-      </c>
-      <c r="E91" t="n">
-        <v>263.9086841597971</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-3289808.593535531</v>
-      </c>
-      <c r="G91" t="n">
-        <v>256.6441190488792</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B92" t="n">
-        <v>30.085</v>
-      </c>
-      <c r="C92" t="n">
-        <v>30.19190702612696</v>
-      </c>
-      <c r="D92" t="n">
-        <v>552.1648313440436</v>
-      </c>
-      <c r="E92" t="n">
-        <v>264.9499959673344</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-3422085.108165973</v>
-      </c>
-      <c r="G92" t="n">
-        <v>256.9067295556419</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>15500</v>
-      </c>
-      <c r="B93" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="C93" t="n">
-        <v>29.42677578966556</v>
-      </c>
-      <c r="D93" t="n">
-        <v>567.0673300891787</v>
-      </c>
-      <c r="E93" t="n">
-        <v>265.931516106916</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-3554871.16956802</v>
-      </c>
-      <c r="G93" t="n">
-        <v>257.1852969185762</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B94" t="n">
-        <v>28.976</v>
-      </c>
-      <c r="C94" t="n">
-        <v>28.7206571686929</v>
-      </c>
-      <c r="D94" t="n">
-        <v>581.6015567389838</v>
-      </c>
-      <c r="E94" t="n">
-        <v>266.8587471386126</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-3688138.397478818</v>
-      </c>
-      <c r="G94" t="n">
-        <v>257.4765497451299</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16500</v>
-      </c>
-      <c r="B95" t="n">
-        <v>28.483</v>
-      </c>
-      <c r="C95" t="n">
-        <v>28.08464189334475</v>
-      </c>
-      <c r="D95" t="n">
-        <v>595.7997903827485</v>
-      </c>
-      <c r="E95" t="n">
-        <v>267.7370248705454</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-3821861.119981252</v>
-      </c>
-      <c r="G95" t="n">
-        <v>257.7777769812648</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>17000</v>
-      </c>
-      <c r="B96" t="n">
-        <v>28.025</v>
-      </c>
-      <c r="C96" t="n">
-        <v>27.52982070498973</v>
-      </c>
-      <c r="D96" t="n">
-        <v>609.6998554831858</v>
-      </c>
-      <c r="E96" t="n">
-        <v>268.5715382773066</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-3956016.295231025</v>
-      </c>
-      <c r="G96" t="n">
-        <v>258.0867409044436</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B97" t="n">
-        <v>27.602</v>
-      </c>
-      <c r="C97" t="n">
-        <v>27.06728435433163</v>
-      </c>
-      <c r="D97" t="n">
-        <v>623.3451218815607</v>
-      </c>
-      <c r="E97" t="n">
-        <v>269.3673465302916</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-4090583.442398543</v>
-      </c>
-      <c r="G97" t="n">
-        <v>258.4016055586663</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B98" t="n">
-        <v>27.211</v>
-      </c>
-      <c r="C98" t="n">
-        <v>26.70812359987569</v>
-      </c>
-      <c r="D98" t="n">
-        <v>636.7845048019607</v>
-      </c>
-      <c r="E98" t="n">
-        <v>270.1293936283312</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-4225544.580508001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>258.7208775557333</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18500</v>
-      </c>
-      <c r="B99" t="n">
-        <v>26.848</v>
-      </c>
-      <c r="C99" t="n">
-        <v>26.46342920668076</v>
-      </c>
-      <c r="D99" t="n">
-        <v>650.0724648548769</v>
-      </c>
-      <c r="E99" t="n">
-        <v>270.8625210232902</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-4360884.174075993</v>
-      </c>
-      <c r="G99" t="n">
-        <v>259.0433568438453</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19000</v>
-      </c>
-      <c r="B100" t="n">
-        <v>26.511</v>
-      </c>
-      <c r="C100" t="n">
-        <v>26.34429194533864</v>
-      </c>
-      <c r="D100" t="n">
-        <v>663.2690080402183</v>
-      </c>
-      <c r="E100" t="n">
-        <v>271.5714785615932</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-4496589.084630053</v>
-      </c>
-      <c r="G100" t="n">
-        <v>259.3680955590532</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="B101" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>26.36180259113377</v>
-      </c>
-      <c r="D101" t="n">
-        <v>676.4396857498631</v>
-      </c>
-      <c r="E101" t="n">
-        <v>272.2609340042449</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-4632648.527332912</v>
-      </c>
-      <c r="G101" t="n">
-        <v>259.6943634690853</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B102" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="C102" t="n">
-        <v>26.52705192334845</v>
-      </c>
-      <c r="D102" t="n">
-        <v>689.6555947698278</v>
-      </c>
-      <c r="E102" t="n">
-        <v>272.9354813413641</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-4769054.032057454</v>
-      </c>
-      <c r="G102" t="n">
-        <v>260.0216188231342</v>
+        <v>255.2362688624854</v>
+      </c>
+      <c r="H84" t="n">
+        <v>216.779</v>
+      </c>
+      <c r="I84" t="n">
+        <v>220.4779132967717</v>
       </c>
     </row>
   </sheetData>
